--- a/DRE/cap08-BasesDeDatos/TablasMaestras/IPT_ACRM_TB_VAL_COMPANY_IMPORTANCE_150506.xlsx
+++ b/DRE/cap08-BasesDeDatos/TablasMaestras/IPT_ACRM_TB_VAL_COMPANY_IMPORTANCE_150506.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -418,63 +418,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C7"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.7109375" customWidth="1"/>
+    <col min="1" max="1" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="1" spans="1:2" ht="18.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="B1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B3" s="4" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="4" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="4" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="B4" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B6" s="4" t="s">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="B5" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="2:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="B7" s="4" t="s">
+    <row r="6" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="B6" s="3" t="s">
         <v>11</v>
       </c>
     </row>
